--- a/data/rings-export-2025-11-11.xlsx
+++ b/data/rings-export-2025-11-11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>Point-to-Point Ring</t>
-  </si>
-  <si>
-    <t>6d920c57-cfda-48b3-842c-5598acc0f55c</t>
-  </si>
-  <si>
-    <t>HNV-06</t>
   </si>
   <si>
     <t>9cc133bd-d206-4fc4-b0d8-5fb7cdd1e5c2</t>
@@ -438,6 +432,39 @@
     "order": 1.3,
     "is_hub": false,
     "system": "Sasan_Baruipur"
+  }
+]</t>
+  </si>
+  <si>
+    <t>6d920c57-cfda-48b3-842c-5598acc0f55c</t>
+  </si>
+  <si>
+    <t>HNV-06</t>
+  </si>
+  <si>
+    <t>&lt;strong class="text-blue-600"&gt;RING STATUS:&lt;/strong&gt; ON AIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+  {
+    "order": 0,
+    "is_hub": true,
+    "system": "BARUIPUR B3(CAT2) /1"
+  },
+  {
+    "order": 1,
+    "is_hub": true,
+    "system": "Baruipur Phultala"
+  },
+  {
+    "order": 2,
+    "is_hub": true,
+    "system": "PIYALI TOWN-2"
+  },
+  {
+    "order": 3,
+    "is_hub": true,
+    "system": "Sitakundu"
   }
 ]</t>
   </si>
@@ -1323,7 +1350,7 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
@@ -1367,7 +1394,7 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>11</v>
@@ -1389,7 +1416,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>11</v>
@@ -1411,7 +1438,7 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>11</v>
@@ -1477,7 +1504,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>11</v>
@@ -1499,7 +1526,7 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>11</v>
@@ -1524,7 +1551,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>12</v>
@@ -1536,17 +1563,17 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
@@ -1558,17 +1585,17 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>12</v>
@@ -1590,7 +1617,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
@@ -1612,7 +1639,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>12</v>
@@ -1629,30 +1656,34 @@
       <c r="B33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="D33" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>16</v>
@@ -1664,21 +1695,21 @@
         <v>12</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>16</v>
@@ -1690,21 +1721,21 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>16</v>
@@ -1716,21 +1747,21 @@
         <v>12</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>16</v>
@@ -1742,21 +1773,21 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>16</v>
@@ -1768,10 +1799,10 @@
         <v>12</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
